--- a/Куделин/Модели Excel/New Logic_Check.xlsx
+++ b/Куделин/Модели Excel/New Logic_Check.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Куделин\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[&gt;0.5]0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -534,7 +534,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -640,7 +640,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42C9-42E5-813D-F28176FC79F7}"/>
             </c:ext>
@@ -655,11 +655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948287200"/>
-        <c:axId val="948275552"/>
+        <c:axId val="1506527200"/>
+        <c:axId val="1506510336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948287200"/>
+        <c:axId val="1506527200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948275552"/>
+        <c:crossAx val="1506510336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -709,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948275552"/>
+        <c:axId val="1506510336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +760,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948287200"/>
+        <c:crossAx val="1506527200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1104,7 +1104,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0C8E-49EA-8023-F91E28E6037A}"/>
             </c:ext>
@@ -1297,7 +1297,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0C8E-49EA-8023-F91E28E6037A}"/>
             </c:ext>
@@ -1312,11 +1312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831134512"/>
-        <c:axId val="831136592"/>
+        <c:axId val="461061792"/>
+        <c:axId val="461048736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831134512"/>
+        <c:axId val="461061792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1359,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831136592"/>
+        <c:crossAx val="461048736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1367,7 +1367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831136592"/>
+        <c:axId val="461048736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1418,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831134512"/>
+        <c:crossAx val="461061792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1500,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1540,7 +1540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1763,7 +1762,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE1D-48F8-B3D7-83795771211E}"/>
             </c:ext>
@@ -1956,7 +1955,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE1D-48F8-B3D7-83795771211E}"/>
             </c:ext>
@@ -1971,11 +1970,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831135760"/>
-        <c:axId val="831137424"/>
+        <c:axId val="461056896"/>
+        <c:axId val="461047648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831135760"/>
+        <c:axId val="461056896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2017,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831137424"/>
+        <c:crossAx val="461047648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2026,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831137424"/>
+        <c:axId val="461047648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2076,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831135760"/>
+        <c:crossAx val="461056896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,7 +2090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2159,7 +2157,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2199,7 +2197,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2422,7 +2419,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42E3-48F4-B971-2744E140F98A}"/>
             </c:ext>
@@ -2615,7 +2612,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-42E3-48F4-B971-2744E140F98A}"/>
             </c:ext>
@@ -2630,11 +2627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="831133680"/>
-        <c:axId val="831136176"/>
+        <c:axId val="461057440"/>
+        <c:axId val="461062336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="831133680"/>
+        <c:axId val="461057440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2674,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831136176"/>
+        <c:crossAx val="461062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2685,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="831136176"/>
+        <c:axId val="461062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2733,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="831133680"/>
+        <c:crossAx val="461057440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2750,7 +2747,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2818,7 +2814,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2832,7 +2828,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2968,7 +2963,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-917A-4E92-B339-61AC56D22FD1}"/>
             </c:ext>
@@ -3074,7 +3069,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-917A-4E92-B339-61AC56D22FD1}"/>
             </c:ext>
@@ -3089,11 +3084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="874562400"/>
-        <c:axId val="874564064"/>
+        <c:axId val="461068864"/>
+        <c:axId val="461045472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="874562400"/>
+        <c:axId val="461068864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,7 +3130,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874564064"/>
+        <c:crossAx val="461045472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3143,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="874564064"/>
+        <c:axId val="461045472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,7 +3189,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874562400"/>
+        <c:crossAx val="461068864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3208,7 +3203,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3276,7 +3270,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3426,7 +3420,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8144-4305-9B27-5860482FD348}"/>
             </c:ext>
@@ -3532,7 +3526,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8144-4305-9B27-5860482FD348}"/>
             </c:ext>
@@ -3547,11 +3541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="691578608"/>
-        <c:axId val="691581936"/>
+        <c:axId val="461044384"/>
+        <c:axId val="461075936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="691578608"/>
+        <c:axId val="461044384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +3587,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691581936"/>
+        <c:crossAx val="461075936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3601,7 +3595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691581936"/>
+        <c:axId val="461075936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,7 +3646,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691578608"/>
+        <c:crossAx val="461044384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3734,7 +3728,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3997,7 +3991,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-122E-401F-84A6-A492D549EFD3}"/>
             </c:ext>
@@ -4190,7 +4184,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-122E-401F-84A6-A492D549EFD3}"/>
             </c:ext>
@@ -4205,11 +4199,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1045149120"/>
-        <c:axId val="1045152864"/>
+        <c:axId val="461069408"/>
+        <c:axId val="461064512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1045149120"/>
+        <c:axId val="461069408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,7 +4246,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045152864"/>
+        <c:crossAx val="461064512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4260,7 +4254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1045152864"/>
+        <c:axId val="461064512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,7 +4305,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045149120"/>
+        <c:crossAx val="461069408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4393,7 +4387,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4407,7 +4401,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4543,7 +4536,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9570-4B81-803C-FA6B2B30FFB5}"/>
             </c:ext>
@@ -4649,7 +4642,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9570-4B81-803C-FA6B2B30FFB5}"/>
             </c:ext>
@@ -4664,11 +4657,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1042030720"/>
-        <c:axId val="613742480"/>
+        <c:axId val="461060160"/>
+        <c:axId val="461049280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1042030720"/>
+        <c:axId val="461060160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4710,7 +4703,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613742480"/>
+        <c:crossAx val="461049280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4718,7 +4711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613742480"/>
+        <c:axId val="461049280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4769,7 +4762,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1042030720"/>
+        <c:crossAx val="461060160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4783,7 +4776,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4851,7 +4843,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5000,7 +4992,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -5106,7 +5098,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-86A3-4BD4-B6FE-439D9D9A37BE}"/>
             </c:ext>
@@ -5121,11 +5113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="986004560"/>
-        <c:axId val="986006640"/>
+        <c:axId val="1506514688"/>
+        <c:axId val="1506517952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="986004560"/>
+        <c:axId val="1506514688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,7 +5159,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986006640"/>
+        <c:crossAx val="1506517952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5175,7 +5167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986006640"/>
+        <c:axId val="1506517952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5226,7 +5218,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004560"/>
+        <c:crossAx val="1506514688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5307,7 +5299,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5456,7 +5448,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -5562,7 +5554,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C53-4ADA-B685-010F75CD9B50}"/>
             </c:ext>
@@ -5577,11 +5569,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="875861504"/>
-        <c:axId val="875870240"/>
+        <c:axId val="1506518496"/>
+        <c:axId val="1506526112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="875861504"/>
+        <c:axId val="1506518496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5623,7 +5615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875870240"/>
+        <c:crossAx val="1506526112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5631,7 +5623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="875870240"/>
+        <c:axId val="1506526112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5682,7 +5674,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="875861504"/>
+        <c:crossAx val="1506518496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5763,7 +5755,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5912,7 +5904,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -6018,7 +6010,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE5F-4D7A-9325-3DD9837EF9FD}"/>
             </c:ext>
@@ -6033,11 +6025,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948278464"/>
-        <c:axId val="948276800"/>
+        <c:axId val="1506497824"/>
+        <c:axId val="1506498368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948278464"/>
+        <c:axId val="1506497824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6079,7 +6071,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948276800"/>
+        <c:crossAx val="1506498368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6087,7 +6079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948276800"/>
+        <c:axId val="1506498368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6138,7 +6130,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948278464"/>
+        <c:crossAx val="1506497824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6219,7 +6211,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6368,7 +6360,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -6474,7 +6466,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6EF1-4F39-81DD-56B4906B8BE7}"/>
             </c:ext>
@@ -6489,11 +6481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948283456"/>
-        <c:axId val="948297600"/>
+        <c:axId val="1505716496"/>
+        <c:axId val="1444525312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948283456"/>
+        <c:axId val="1505716496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6535,7 +6527,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948297600"/>
+        <c:crossAx val="1444525312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6543,7 +6535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948297600"/>
+        <c:axId val="1444525312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6594,7 +6586,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948283456"/>
+        <c:crossAx val="1505716496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6675,7 +6667,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6824,7 +6816,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -6930,7 +6922,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C03-4799-9415-128D135F1E11}"/>
             </c:ext>
@@ -6945,11 +6937,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="985997904"/>
-        <c:axId val="986004976"/>
+        <c:axId val="461066688"/>
+        <c:axId val="461056352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="985997904"/>
+        <c:axId val="461066688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6991,7 +6983,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="986004976"/>
+        <c:crossAx val="461056352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6999,7 +6991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="986004976"/>
+        <c:axId val="461056352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7050,7 +7042,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985997904"/>
+        <c:crossAx val="461066688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7131,7 +7123,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7306,7 +7298,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -7412,7 +7404,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BB22-4E5F-8020-017F0C4E1BAD}"/>
             </c:ext>
@@ -7427,11 +7419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="948308000"/>
-        <c:axId val="948317984"/>
+        <c:axId val="461060704"/>
+        <c:axId val="461048192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948308000"/>
+        <c:axId val="461060704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7473,7 +7465,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948317984"/>
+        <c:crossAx val="461048192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7481,7 +7473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="948317984"/>
+        <c:axId val="461048192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7532,7 +7524,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948308000"/>
+        <c:crossAx val="461060704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7613,7 +7605,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7762,7 +7754,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6760-4CA5-9B8F-BF415A6FABF0}"/>
             </c:ext>
@@ -7868,7 +7860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6760-4CA5-9B8F-BF415A6FABF0}"/>
             </c:ext>
@@ -7883,11 +7875,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1810195856"/>
-        <c:axId val="1810195440"/>
+        <c:axId val="461063968"/>
+        <c:axId val="461043840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1810195856"/>
+        <c:axId val="461063968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +7921,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810195440"/>
+        <c:crossAx val="461043840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7937,7 +7929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1810195440"/>
+        <c:axId val="461043840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7988,7 +7980,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1810195856"/>
+        <c:crossAx val="461063968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8069,7 +8061,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8336,7 +8328,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-60A5-4987-8382-8EC5187F4F40}"/>
             </c:ext>
@@ -8529,7 +8521,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-60A5-4987-8382-8EC5187F4F40}"/>
             </c:ext>
@@ -8544,11 +8536,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1051492464"/>
-        <c:axId val="1051493712"/>
+        <c:axId val="461072128"/>
+        <c:axId val="461075392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1051492464"/>
+        <c:axId val="461072128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8591,7 +8583,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051493712"/>
+        <c:crossAx val="461075392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8599,7 +8591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1051493712"/>
+        <c:axId val="461075392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8650,7 +8642,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1051492464"/>
+        <c:crossAx val="461072128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17647,7 +17639,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17683,7 +17675,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17719,7 +17711,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17755,7 +17747,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17791,7 +17783,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17827,7 +17819,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17863,7 +17855,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17899,7 +17891,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17940,7 +17932,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17976,7 +17968,7 @@
         <xdr:cNvPr id="22" name="Диаграмма 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18012,7 +18004,7 @@
         <xdr:cNvPr id="25" name="Диаграмма 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18048,7 +18040,7 @@
         <xdr:cNvPr id="27" name="Диаграмма 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18084,7 +18076,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18120,7 +18112,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18156,7 +18148,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18192,7 +18184,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23581,9 +23573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:C145"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
